--- a/biology/Zoologie/Chactidae/Chactidae.xlsx
+++ b/biology/Zoologie/Chactidae/Chactidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chactidae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique[1], de l'Ouest des États-Unis à l'Est du Brésil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, de l'Ouest des États-Unis à l'Est du Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (28/07/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (28/07/2023) :
 Auyantepuia González-Sponga, 1978
 Broteochactas Pocock, 1893
 Brotheas C. L. Koch, 1837
@@ -560,7 +576,7 @@
 Teuthraustes Simon, 1878
 Uroctonus Thorell, 1876
 Vachoniochactas Gonzalez-Sponga, 1978
-Selon World Spider Catalog (version 23.5, 2023)[3] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Araripescorpius Campos, 1986</t>
         </is>
       </c>
@@ -589,11 +605,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Pocock en 1893 comme une tribu des Iuridae. Elle est élevée au rang de famille par Laurie en 1896[4].
-Le genre Chactopsis est placé dans cette famille par Lourenço en 2003[5] tandis que Soleglad et Sissom en 2001[6] le plaçait dans les Euscorpiidae.
-Fet et Soleglad[7] répartissaient les genres en trois sous-famille les Chactinae avec Chactas, Nullibrotheas, Teuthraustes et Vachoniochactas, les Brotheinae avec Broteochactas, Brotheas, Hadrurochactas, Neochactas et Belisarius et les Uroctoninae avec Anuroctonus et Uroctonus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Pocock en 1893 comme une tribu des Iuridae. Elle est élevée au rang de famille par Laurie en 1896.
+Le genre Chactopsis est placé dans cette famille par Lourenço en 2003 tandis que Soleglad et Sissom en 2001 le plaçait dans les Euscorpiidae.
+Fet et Soleglad répartissaient les genres en trois sous-famille les Chactinae avec Chactas, Nullibrotheas, Teuthraustes et Vachoniochactas, les Brotheinae avec Broteochactas, Brotheas, Hadrurochactas, Neochactas et Belisarius et les Uroctoninae avec Anuroctonus et Uroctonus.
 </t>
         </is>
       </c>
@@ -622,7 +640,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1893 : « Notes on the classification of scorpions, followed by some observations upon synonymy, with descriptions of new genera and species. » Annals and Magazine of Natural History, sér. 6, vol. 12, p. 303–330 (texte intégral).</t>
         </is>
